--- a/slang.xlsx
+++ b/slang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwibagusd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C3AD75-2BCE-41B4-A7DC-044332344333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E738C7C-C713-4191-994A-CE51B8726C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A24F0FA3-5004-4472-BAB2-8C3F57C649F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="2135">
   <si>
     <t>slang,formal</t>
   </si>
@@ -6417,13 +6417,34 @@
   </si>
   <si>
     <t>pegimanaaa,bagaimana</t>
+  </si>
+  <si>
+    <t>bangetttttttt,sangat</t>
+  </si>
+  <si>
+    <t>bangett️,sangat</t>
+  </si>
+  <si>
+    <t>salutt,salut</t>
+  </si>
+  <si>
+    <t>sukak,suka</t>
+  </si>
+  <si>
+    <t>buldep,bulan depan</t>
+  </si>
+  <si>
+    <t>huhu,sedih</t>
+  </si>
+  <si>
+    <t>bangat,sangat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6554,6 +6575,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6900,8 +6927,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7277,10 +7305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC429AF-568A-4BC0-BB06-44D7580F69EC}">
-  <dimension ref="A1:A2395"/>
+  <dimension ref="A1:A2402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2372" workbookViewId="0">
-      <selection activeCell="C2377" sqref="C2377"/>
+    <sheetView tabSelected="1" topLeftCell="A2382" workbookViewId="0">
+      <selection activeCell="A2397" sqref="A2397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19260,6 +19288,41 @@
         <v>2127</v>
       </c>
     </row>
+    <row r="2396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2396" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2397" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2398" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2399" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2400" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2401" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2402" t="s">
+        <v>2134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
